--- a/final_ood_opportunity.xlsx
+++ b/final_ood_opportunity.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5041666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008333333333333304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.625</v>
+        <v>0.712500023841858</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0372677996249965</v>
+        <v>0.08164963862597714</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6833333333333332</v>
+        <v>0.712500023841858</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06508541396588877</v>
+        <v>0.05803495229609949</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.875</v>
+        <v>0.8833333492279053</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05892556509887893</v>
+        <v>0.08186201268405847</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5624999999999999</v>
+        <v>0.5541666865348815</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04370036867375631</v>
+        <v>0.04289846085055259</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6875</v>
+        <v>0.6708333492279053</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06972166887783962</v>
+        <v>0.0533593689555652</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8833333333333334</v>
+        <v>0.8916666746139527</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1434931279810214</v>
+        <v>0.1869900315084763</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.575</v>
+        <v>0.5541666746139526</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04487637339278755</v>
+        <v>0.08079467945472155</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9458333333333332</v>
+        <v>0.9458333611488342</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01666666666666665</v>
+        <v>0.02825970591949954</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6</v>
+        <v>0.5166666984558106</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06770032003863292</v>
+        <v>0.07500000728501242</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.469530144652096</v>
+        <v>0.4568070933915337</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03028881479635058</v>
+        <v>0.04687115721599745</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6099695494155595</v>
+        <v>0.702345260690466</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04742677784205869</v>
+        <v>0.08932050717143956</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6668277943026886</v>
+        <v>0.7038370508766112</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0820437580634459</v>
+        <v>0.06233519582119591</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8731679399505488</v>
+        <v>0.8830210268383762</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06050214478024808</v>
+        <v>0.08195720948512833</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5264705803771095</v>
+        <v>0.5133808155440034</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05965664028372511</v>
+        <v>0.06630544977308069</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6756474534922221</v>
+        <v>0.6587419753435316</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07768319058364495</v>
+        <v>0.060854347344914</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8802056892875332</v>
+        <v>0.8689760537784854</v>
       </c>
       <c r="C18" t="n">
-        <v>0.149080691090213</v>
+        <v>0.2320513957851537</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5448137129719459</v>
+        <v>0.5075267970623552</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06512315224079253</v>
+        <v>0.1069716999002428</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9457554418622213</v>
+        <v>0.9457443970496</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01668752635485479</v>
+        <v>0.02840381171191628</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,120 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5873952754240614</v>
+        <v>0.512892120145961</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07449047951066391</v>
+        <v>0.07680164309621712</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4961805555555556</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.006892164319888624</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.784375</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1101871303905484</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7911458333333332</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.05794451269038275</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9635416666666666</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.03377171226607729</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6088541666666667</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0702934216229143</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.7392361111111112</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.07728639419972352</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.923611111111111</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1476245812028222</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.6371527777777779</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.02131955754584547</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9927083333333334</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.005851492898039144</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5368055555555556</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.07994711552560352</v>
       </c>
     </row>
   </sheetData>
